--- a/Code/Results/Cases/Case_10_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_10_1/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,34 +415,40 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.639297129245051</v>
+        <v>3.46677384630982</v>
       </c>
       <c r="C2">
-        <v>0.9954155328274226</v>
+        <v>1.019169272890139</v>
       </c>
       <c r="D2">
-        <v>0.03898913623710598</v>
+        <v>0.04824190763466873</v>
       </c>
       <c r="E2">
-        <v>1.441922359378012</v>
+        <v>1.35169962688731</v>
       </c>
       <c r="F2">
-        <v>0.4605004832323445</v>
+        <v>0.5084535737087279</v>
       </c>
       <c r="G2">
-        <v>0.0007686809952637855</v>
+        <v>0.0007896385517037115</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.01092094002687105</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.003536527785124033</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -460,36 +466,42 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.208600237614888</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.435151477765999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.163926660293328</v>
+        <v>3.02011174815118</v>
       </c>
       <c r="C3">
-        <v>0.8738301893891673</v>
+        <v>0.8990605546520669</v>
       </c>
       <c r="D3">
-        <v>0.03462429524203259</v>
+        <v>0.0433835340809452</v>
       </c>
       <c r="E3">
-        <v>1.235854890260782</v>
+        <v>1.176740016824183</v>
       </c>
       <c r="F3">
-        <v>0.4140919297068777</v>
+        <v>0.468187038062311</v>
       </c>
       <c r="G3">
-        <v>0.0007740569087419503</v>
+        <v>0.000793366441376707</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.00766975902495437</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.001965288275290966</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -507,36 +519,42 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.104349497267975</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.348594257482659</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.873012578389137</v>
+        <v>2.745669458445775</v>
       </c>
       <c r="C4">
-        <v>0.7993378641016591</v>
+        <v>0.8258832939075091</v>
       </c>
       <c r="D4">
-        <v>0.03195374705860843</v>
+        <v>0.04041041276209967</v>
       </c>
       <c r="E4">
-        <v>1.112018506115731</v>
+        <v>1.069666178277558</v>
       </c>
       <c r="F4">
-        <v>0.3874158420567042</v>
+        <v>0.4441198563540496</v>
       </c>
       <c r="G4">
-        <v>0.0007774440430916593</v>
+        <v>0.0007957272508090085</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.005904022270549425</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.001270814676121557</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -554,36 +572,42 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.046477410931772</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.297464469391542</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.754637414378635</v>
+        <v>2.633730900298815</v>
       </c>
       <c r="C5">
-        <v>0.7690066449735298</v>
+        <v>0.7977722387358028</v>
       </c>
       <c r="D5">
-        <v>0.03086722398415276</v>
+        <v>0.03928077046956702</v>
       </c>
       <c r="E5">
-        <v>1.062125557461115</v>
+        <v>1.02608314129057</v>
       </c>
       <c r="F5">
-        <v>0.3769626004365563</v>
+        <v>0.4336700664951891</v>
       </c>
       <c r="G5">
-        <v>0.0007788469445427952</v>
+        <v>0.0007967124296093884</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.00523637476029204</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.001110499418202515</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -601,36 +625,42 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.024306193568947</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.274436995028537</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.734989976010297</v>
+        <v>2.615103766652396</v>
       </c>
       <c r="C6">
-        <v>0.7639712490239674</v>
+        <v>0.7950489896263662</v>
       </c>
       <c r="D6">
-        <v>0.03068689589320428</v>
+        <v>0.03919122151063448</v>
       </c>
       <c r="E6">
-        <v>1.053872496020546</v>
+        <v>1.018830727099584</v>
       </c>
       <c r="F6">
-        <v>0.3752509494558538</v>
+        <v>0.4309748955527013</v>
       </c>
       <c r="G6">
-        <v>0.000779081286801657</v>
+        <v>0.0007968828780179578</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.005126972417599962</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.001168165231651308</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -648,36 +678,42 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.020706307984653</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.267397047251904</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.871415508127143</v>
+        <v>2.74406360535454</v>
       </c>
       <c r="C7">
-        <v>0.7989287250678387</v>
+        <v>0.8308092758339853</v>
       </c>
       <c r="D7">
-        <v>0.03193908754566621</v>
+        <v>0.04066341026042863</v>
       </c>
       <c r="E7">
-        <v>1.111343450545846</v>
+        <v>1.069026406947373</v>
       </c>
       <c r="F7">
-        <v>0.3872732262943899</v>
+        <v>0.4413300423773592</v>
       </c>
       <c r="G7">
-        <v>0.0007774628703471185</v>
+        <v>0.0007957557770997617</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.005890106154369357</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.001472853056091239</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -695,36 +731,42 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.046172851185844</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.28828808501018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.475146169237348</v>
+        <v>3.312653545137607</v>
       </c>
       <c r="C8">
-        <v>0.9534495003956067</v>
+        <v>0.9847298999007421</v>
       </c>
       <c r="D8">
-        <v>0.03748176335487585</v>
+        <v>0.04692401796475565</v>
       </c>
       <c r="E8">
-        <v>1.370245579812007</v>
+        <v>1.291216389130142</v>
       </c>
       <c r="F8">
-        <v>0.4440963412042933</v>
+        <v>0.4909136236972671</v>
       </c>
       <c r="G8">
-        <v>0.0007705172717353615</v>
+        <v>0.0007909279253908628</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.009741767389663553</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.003174773938467546</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -742,36 +784,42 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.171298389780702</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.393125671300481</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.670153159864412</v>
+        <v>4.427610317638539</v>
       </c>
       <c r="C9">
-        <v>1.25854120576895</v>
+        <v>1.282110248089054</v>
       </c>
       <c r="D9">
-        <v>0.04845951825805628</v>
+        <v>0.0588090931990024</v>
       </c>
       <c r="E9">
-        <v>1.904628270821107</v>
+        <v>1.730915313986756</v>
       </c>
       <c r="F9">
-        <v>0.5719243957679723</v>
+        <v>0.5988199823157387</v>
       </c>
       <c r="G9">
-        <v>0.0007575363395391445</v>
+        <v>0.0007819898167375172</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.01935802986678037</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.008607690668569923</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -789,36 +837,42 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.471852032810375</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.632718893241275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.560268806890804</v>
+        <v>5.24749449069725</v>
       </c>
       <c r="C10">
-        <v>1.485214488906252</v>
+        <v>1.50644471872306</v>
       </c>
       <c r="D10">
-        <v>0.05664530721055883</v>
+        <v>0.06925275944912102</v>
       </c>
       <c r="E10">
-        <v>2.322005527160329</v>
+        <v>1.955498156088424</v>
       </c>
       <c r="F10">
-        <v>0.6788586430795363</v>
+        <v>0.6683724546327312</v>
       </c>
       <c r="G10">
-        <v>0.0007483187425436127</v>
+        <v>0.0007759177289413412</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.02725836382229918</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.0143664161419883</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -836,36 +890,42 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.736287612921188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.775547518866148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.969211083351865</v>
+        <v>5.612142301903873</v>
       </c>
       <c r="C11">
-        <v>1.589203920418356</v>
+        <v>1.610434802784823</v>
       </c>
       <c r="D11">
-        <v>0.06040982474324608</v>
+        <v>0.08861588644301577</v>
       </c>
       <c r="E11">
-        <v>2.519515414215107</v>
+        <v>1.267337406619561</v>
       </c>
       <c r="F11">
-        <v>0.7310970168233126</v>
+        <v>0.5871507068896307</v>
       </c>
       <c r="G11">
-        <v>0.0007441769524084341</v>
+        <v>0.0007746196692268896</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.04270868006982909</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.01643561128637661</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -883,36 +943,42 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.868589470172623</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.474547141099578</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.124773827319245</v>
+        <v>5.74725555498668</v>
       </c>
       <c r="C12">
-        <v>1.628738126228427</v>
+        <v>1.642389293035194</v>
       </c>
       <c r="D12">
-        <v>0.06184261659738866</v>
+        <v>0.1037805964393641</v>
       </c>
       <c r="E12">
-        <v>2.59562948098278</v>
+        <v>0.7713189373199754</v>
       </c>
       <c r="F12">
-        <v>0.7514676455013642</v>
+        <v>0.5121260620343264</v>
       </c>
       <c r="G12">
-        <v>0.0007426142563734144</v>
+        <v>0.0007745905169331831</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.07854308646568597</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.01664005842228544</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -930,36 +996,42 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.920657000486727</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1.224683832186997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.091237065252074</v>
+        <v>5.71206086016997</v>
       </c>
       <c r="C13">
-        <v>1.62021628777336</v>
+        <v>1.628934670659646</v>
       </c>
       <c r="D13">
-        <v>0.0615336923972265</v>
+        <v>0.1168170525753141</v>
       </c>
       <c r="E13">
-        <v>2.579174270918756</v>
+        <v>0.3948377359290731</v>
       </c>
       <c r="F13">
-        <v>0.7470530197557252</v>
+        <v>0.4334589186537912</v>
       </c>
       <c r="G13">
-        <v>0.0007429505859019447</v>
+        <v>0.0007755528712741501</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1314041879758321</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.01567717074598907</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -977,36 +1049,42 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.909351657525605</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.9858811040282944</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.981994411985397</v>
+        <v>5.610402796626545</v>
       </c>
       <c r="C14">
-        <v>1.59245311887048</v>
+        <v>1.600782500645209</v>
       </c>
       <c r="D14">
-        <v>0.06052754737639532</v>
+        <v>0.1251548963565625</v>
       </c>
       <c r="E14">
-        <v>2.525749484437696</v>
+        <v>0.2040035724406977</v>
       </c>
       <c r="F14">
-        <v>0.7327606687664314</v>
+        <v>0.3772055239524477</v>
       </c>
       <c r="G14">
-        <v>0.0007440482843727255</v>
+        <v>0.0007766576504858142</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1788295655706946</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.01459786682350295</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1024,36 +1102,42 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.872832176201655</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.8260307867355579</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.915175981730897</v>
+        <v>5.549222564864976</v>
       </c>
       <c r="C15">
-        <v>1.575468599796352</v>
+        <v>1.586479300100507</v>
       </c>
       <c r="D15">
-        <v>0.05991224352278834</v>
+        <v>0.1266680095887693</v>
       </c>
       <c r="E15">
-        <v>2.493204529720103</v>
+        <v>0.1664673984577796</v>
       </c>
       <c r="F15">
-        <v>0.7240852042093451</v>
+        <v>0.361549071281118</v>
       </c>
       <c r="G15">
-        <v>0.000744721346776587</v>
+        <v>0.0007771664842525621</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1906857109769646</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.01418120435697556</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1071,36 +1155,42 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.850726843422734</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.7848470606577962</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.53363491942747</v>
+        <v>5.202401853822494</v>
       </c>
       <c r="C16">
-        <v>1.478438606471798</v>
+        <v>1.495615476278033</v>
       </c>
       <c r="D16">
-        <v>0.05640022152631019</v>
+        <v>0.1191748546277722</v>
       </c>
       <c r="E16">
-        <v>2.309269822762175</v>
+        <v>0.1619581450697751</v>
       </c>
       <c r="F16">
-        <v>0.6755230432628423</v>
+        <v>0.3473887037929586</v>
       </c>
       <c r="G16">
-        <v>0.0007485903130532989</v>
+        <v>0.0007795445118418047</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.175491235802042</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.01192358401845794</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1118,36 +1208,42 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.727902952230721</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.7706965671103063</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.300687919728546</v>
+        <v>4.991035451832488</v>
       </c>
       <c r="C17">
-        <v>1.419157990854444</v>
+        <v>1.441267988981963</v>
       </c>
       <c r="D17">
-        <v>0.05425707574409699</v>
+        <v>0.1089952125854552</v>
       </c>
       <c r="E17">
-        <v>2.198537140315693</v>
+        <v>0.2459753982704243</v>
       </c>
       <c r="F17">
-        <v>0.6467009445061791</v>
+        <v>0.365796307107324</v>
       </c>
       <c r="G17">
-        <v>0.0007509758215070161</v>
+        <v>0.000780802229109395</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1367689001963726</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.01081278822335374</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1165,36 +1261,42 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.655792619796131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.8422055574621652</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.167073336104238</v>
+        <v>4.871728470037112</v>
       </c>
       <c r="C18">
-        <v>1.385141676507658</v>
+        <v>1.407347280808153</v>
       </c>
       <c r="D18">
-        <v>0.05302813720694388</v>
+        <v>0.09563455489917061</v>
       </c>
       <c r="E18">
-        <v>2.135550865997416</v>
+        <v>0.4790218023010837</v>
       </c>
       <c r="F18">
-        <v>0.6304566638523852</v>
+        <v>0.4181691898324047</v>
       </c>
       <c r="G18">
-        <v>0.0007523528468301177</v>
+        <v>0.0007811315644281613</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.08461431799794639</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.01026415122278657</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1212,36 +1314,42 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.615430967274676</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1.011170216096644</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.121893730647344</v>
+        <v>4.83500880465499</v>
       </c>
       <c r="C19">
-        <v>1.373637281602043</v>
+        <v>1.40339474351282</v>
       </c>
       <c r="D19">
-        <v>0.05261264338035687</v>
+        <v>0.08223365033970964</v>
       </c>
       <c r="E19">
-        <v>2.114339516159717</v>
+        <v>0.9131096264680565</v>
       </c>
       <c r="F19">
-        <v>0.625011828509713</v>
+        <v>0.4940337535870114</v>
       </c>
       <c r="G19">
-        <v>0.0007528199807482719</v>
+        <v>0.0007805737522911431</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.0420758044946794</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.01072812603060136</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1259,36 +1367,42 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.601949714868709</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.251779364725252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.325446324771633</v>
+        <v>5.031627643970751</v>
       </c>
       <c r="C20">
-        <v>1.425459995105768</v>
+        <v>1.464437765624723</v>
       </c>
       <c r="D20">
-        <v>0.05448482054296733</v>
+        <v>0.06744620694644254</v>
       </c>
       <c r="E20">
-        <v>2.210250434711142</v>
+        <v>1.891890550245648</v>
       </c>
       <c r="F20">
-        <v>0.6497341005681392</v>
+        <v>0.6409981226065185</v>
       </c>
       <c r="G20">
-        <v>0.0007507213798648098</v>
+        <v>0.0007775358304290444</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.02500230937025849</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.01333659226125761</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1306,36 +1420,42 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.663351909176043</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.707873429777266</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.014061404798156</v>
+        <v>5.663603663768583</v>
       </c>
       <c r="C21">
-        <v>1.600603352844928</v>
+        <v>1.636139845533137</v>
       </c>
       <c r="D21">
-        <v>0.06082286766925193</v>
+        <v>0.07300782904698622</v>
       </c>
       <c r="E21">
-        <v>2.541403832657366</v>
+        <v>2.224275313971731</v>
       </c>
       <c r="F21">
-        <v>0.7369420707503735</v>
+        <v>0.7181090159483858</v>
       </c>
       <c r="G21">
-        <v>0.0007437257231604488</v>
+        <v>0.0007726865873697398</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.03281830044685519</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.01854060229383236</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1353,36 +1473,42 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.883503363258569</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.895197017569245</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.468291637405798</v>
+        <v>6.077296100170315</v>
       </c>
       <c r="C22">
-        <v>1.715993697539091</v>
+        <v>1.741715857843474</v>
       </c>
       <c r="D22">
-        <v>0.06500821190251571</v>
+        <v>0.07705961331203781</v>
       </c>
       <c r="E22">
-        <v>2.76566328394901</v>
+        <v>2.390794747381719</v>
       </c>
       <c r="F22">
-        <v>0.7974113547351038</v>
+        <v>0.7665380570823004</v>
       </c>
       <c r="G22">
-        <v>0.0007391860033399157</v>
+        <v>0.000769642109448282</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.03795447932891705</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.02207615676014552</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1400,36 +1526,42 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.038988414660309</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>2.010982655735347</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.225432000269564</v>
+        <v>5.856533976777541</v>
       </c>
       <c r="C23">
-        <v>1.654312258275127</v>
+        <v>1.678693843975964</v>
       </c>
       <c r="D23">
-        <v>0.06276995956053355</v>
+        <v>0.0745603636229859</v>
       </c>
       <c r="E23">
-        <v>2.645172295040652</v>
+        <v>2.301860511110718</v>
       </c>
       <c r="F23">
-        <v>0.7647936384224749</v>
+        <v>0.7437029678328884</v>
       </c>
       <c r="G23">
-        <v>0.0007416065873020089</v>
+        <v>0.0007712498272074986</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.03518443906473134</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.01990882957891671</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1447,36 +1579,42 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.954853820018542</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.959238721746175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.314252094415224</v>
+        <v>5.022345505370311</v>
       </c>
       <c r="C24">
-        <v>1.422610659040799</v>
+        <v>1.452387582760707</v>
       </c>
       <c r="D24">
-        <v>0.0543818473026505</v>
+        <v>0.0656626206233426</v>
       </c>
       <c r="E24">
-        <v>2.204952766859662</v>
+        <v>1.967538615152051</v>
       </c>
       <c r="F24">
-        <v>0.6483618008775949</v>
+        <v>0.6548386594035378</v>
       </c>
       <c r="G24">
-        <v>0.0007508363954645825</v>
+        <v>0.0007774558731151467</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.02548343545092102</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.01297716825878936</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1494,36 +1632,42 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.659930959915187</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.754635322995938</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.34516289540062</v>
+        <v>4.125615602166818</v>
       </c>
       <c r="C25">
-        <v>1.175662098009525</v>
+        <v>1.210872665251486</v>
       </c>
       <c r="D25">
-        <v>0.04547296341502971</v>
+        <v>0.05608168448596018</v>
       </c>
       <c r="E25">
-        <v>1.75639716116838</v>
+        <v>1.611287029704712</v>
       </c>
       <c r="F25">
-        <v>0.5352944310287526</v>
+        <v>0.5640920550256467</v>
       </c>
       <c r="G25">
-        <v>0.0007609863970889205</v>
+        <v>0.0007843738772956623</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.01649207729639268</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.007186637996994705</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,7 +1685,13 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.383668787425194</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.549647283128024</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_10_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_10_1/res_line/pl_mw.xlsx
@@ -427,28 +427,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.46677384630982</v>
+        <v>2.597803197262351</v>
       </c>
       <c r="C2">
-        <v>1.019169272890139</v>
+        <v>0.7119485641435404</v>
       </c>
       <c r="D2">
-        <v>0.04824190763466873</v>
+        <v>0.03291285572721492</v>
       </c>
       <c r="E2">
-        <v>1.35169962688731</v>
+        <v>1.361407321067915</v>
       </c>
       <c r="F2">
-        <v>0.5084535737087279</v>
+        <v>0.6798212621317248</v>
       </c>
       <c r="G2">
-        <v>0.0007896385517037115</v>
+        <v>0.0007871586232472039</v>
       </c>
       <c r="H2">
-        <v>0.01092094002687105</v>
+        <v>0.01199277220940109</v>
       </c>
       <c r="I2">
-        <v>0.003536527785124033</v>
+        <v>0.005767783202876409</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -469,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.7161795053628026</v>
       </c>
       <c r="Q2">
-        <v>1.435151477765999</v>
+        <v>2.014744168414211</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -480,28 +480,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.02011174815118</v>
+        <v>2.26066291172782</v>
       </c>
       <c r="C3">
-        <v>0.8990605546520669</v>
+        <v>0.6281112901472454</v>
       </c>
       <c r="D3">
-        <v>0.0433835340809452</v>
+        <v>0.02978638338481687</v>
       </c>
       <c r="E3">
-        <v>1.176740016824183</v>
+        <v>1.18640414660436</v>
       </c>
       <c r="F3">
-        <v>0.468187038062311</v>
+        <v>0.6162561042387509</v>
       </c>
       <c r="G3">
-        <v>0.000793366441376707</v>
+        <v>0.0007907025278933496</v>
       </c>
       <c r="H3">
-        <v>0.00766975902495437</v>
+        <v>0.008635475661823488</v>
       </c>
       <c r="I3">
-        <v>0.001965288275290966</v>
+        <v>0.003802278604460696</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -522,10 +522,10 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.7252262043596858</v>
       </c>
       <c r="Q3">
-        <v>1.348594257482659</v>
+        <v>1.84802363948063</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -533,28 +533,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.745669458445775</v>
+        <v>2.053033621404154</v>
       </c>
       <c r="C4">
-        <v>0.8258832939075091</v>
+        <v>0.5769465878343851</v>
       </c>
       <c r="D4">
-        <v>0.04041041276209967</v>
+        <v>0.02786294938359291</v>
       </c>
       <c r="E4">
-        <v>1.069666178277558</v>
+        <v>1.079243740448391</v>
       </c>
       <c r="F4">
-        <v>0.4441198563540496</v>
+        <v>0.5777840511071304</v>
       </c>
       <c r="G4">
-        <v>0.0007957272508090085</v>
+        <v>0.0007929509702298748</v>
       </c>
       <c r="H4">
-        <v>0.005904022270549425</v>
+        <v>0.006788786149038328</v>
       </c>
       <c r="I4">
-        <v>0.001270814676121557</v>
+        <v>0.002808140480463628</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -575,10 +575,10 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.7314904468061201</v>
       </c>
       <c r="Q4">
-        <v>1.297464469391542</v>
+        <v>1.747272484144673</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -586,28 +586,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.633730900298815</v>
+        <v>1.966867226263588</v>
       </c>
       <c r="C5">
-        <v>0.7977722387358028</v>
+        <v>0.5570060540242423</v>
       </c>
       <c r="D5">
-        <v>0.03928077046956702</v>
+        <v>0.02711732349066409</v>
       </c>
       <c r="E5">
-        <v>1.02608314129057</v>
+        <v>1.03560817179681</v>
       </c>
       <c r="F5">
-        <v>0.4336700664951891</v>
+        <v>0.561636489855097</v>
       </c>
       <c r="G5">
-        <v>0.0007967124296093884</v>
+        <v>0.0007938913891312019</v>
       </c>
       <c r="H5">
-        <v>0.00523637476029204</v>
+        <v>0.006084113324819063</v>
       </c>
       <c r="I5">
-        <v>0.001110499418202515</v>
+        <v>0.002507873075721534</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -628,10 +628,10 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.734578658242711</v>
       </c>
       <c r="Q5">
-        <v>1.274436995028537</v>
+        <v>1.704511633347835</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -639,28 +639,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.615103766652396</v>
+        <v>1.950852273096388</v>
       </c>
       <c r="C6">
-        <v>0.7950489896263662</v>
+        <v>0.5547293813975784</v>
       </c>
       <c r="D6">
-        <v>0.03919122151063448</v>
+        <v>0.02704163866897247</v>
       </c>
       <c r="E6">
-        <v>1.018830727099584</v>
+        <v>1.028341575679136</v>
       </c>
       <c r="F6">
-        <v>0.4309748955527013</v>
+        <v>0.5582333237960952</v>
       </c>
       <c r="G6">
-        <v>0.0007968828780179578</v>
+        <v>0.0007940555458227334</v>
       </c>
       <c r="H6">
-        <v>0.005126972417599962</v>
+        <v>0.005967871774951172</v>
       </c>
       <c r="I6">
-        <v>0.001168165231651308</v>
+        <v>0.00253600607557658</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -681,10 +681,10 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.7355487681603776</v>
       </c>
       <c r="Q6">
-        <v>1.267397047251904</v>
+        <v>1.694901505474832</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -692,28 +692,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.74406360535454</v>
+        <v>2.047220876175572</v>
       </c>
       <c r="C7">
-        <v>0.8308092758339853</v>
+        <v>0.579499765070608</v>
       </c>
       <c r="D7">
-        <v>0.04066341026042863</v>
+        <v>0.02798496047145704</v>
       </c>
       <c r="E7">
-        <v>1.069026406947373</v>
+        <v>1.078590135761104</v>
       </c>
       <c r="F7">
-        <v>0.4413300423773592</v>
+        <v>0.5755708414071776</v>
       </c>
       <c r="G7">
-        <v>0.0007957557770997617</v>
+        <v>0.0007929820356354663</v>
       </c>
       <c r="H7">
-        <v>0.005890106154369357</v>
+        <v>0.006772998661915941</v>
       </c>
       <c r="I7">
-        <v>0.001472853056091239</v>
+        <v>0.002993613051261335</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -734,10 +734,10 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.7327682632237398</v>
       </c>
       <c r="Q7">
-        <v>1.28828808501018</v>
+        <v>1.739771223154349</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -745,28 +745,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.312653545137607</v>
+        <v>2.475449915545028</v>
       </c>
       <c r="C8">
-        <v>0.9847298999007421</v>
+        <v>0.6867448461070467</v>
       </c>
       <c r="D8">
-        <v>0.04692401796475565</v>
+        <v>0.03201250899027031</v>
       </c>
       <c r="E8">
-        <v>1.291216389130142</v>
+        <v>1.300903148091805</v>
       </c>
       <c r="F8">
-        <v>0.4909136236972671</v>
+        <v>0.655126001160383</v>
       </c>
       <c r="G8">
-        <v>0.0007909279253908628</v>
+        <v>0.0007883887738010078</v>
       </c>
       <c r="H8">
-        <v>0.009741767389663553</v>
+        <v>0.01077826887721478</v>
       </c>
       <c r="I8">
-        <v>0.003174773938467546</v>
+        <v>0.00526474178485703</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -787,10 +787,10 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.7208571998837741</v>
       </c>
       <c r="Q8">
-        <v>1.393125671300481</v>
+        <v>1.947695453102057</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -798,28 +798,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.427610317638539</v>
+        <v>3.31937571960276</v>
       </c>
       <c r="C9">
-        <v>1.282110248089054</v>
+        <v>0.89486404983694</v>
       </c>
       <c r="D9">
-        <v>0.0588090931990024</v>
+        <v>0.03964780683899249</v>
       </c>
       <c r="E9">
-        <v>1.730915313986756</v>
+        <v>1.74031629218878</v>
       </c>
       <c r="F9">
-        <v>0.5988199823157387</v>
+        <v>0.819821406831295</v>
       </c>
       <c r="G9">
-        <v>0.0007819898167375172</v>
+        <v>0.0007799115522071909</v>
       </c>
       <c r="H9">
-        <v>0.01935802986678037</v>
+        <v>0.02055750911132859</v>
       </c>
       <c r="I9">
-        <v>0.008607690668569923</v>
+        <v>0.01132324856504763</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -840,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.7010876780096567</v>
       </c>
       <c r="Q9">
-        <v>1.632718893241275</v>
+        <v>2.382696616817753</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -851,28 +851,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.24749449069725</v>
+        <v>3.917712953324951</v>
       </c>
       <c r="C10">
-        <v>1.50644471872306</v>
+        <v>1.045199349042434</v>
       </c>
       <c r="D10">
-        <v>0.06925275944912102</v>
+        <v>0.04618919566138402</v>
       </c>
       <c r="E10">
-        <v>1.955498156088424</v>
+        <v>1.963957886527425</v>
       </c>
       <c r="F10">
-        <v>0.6683724546327312</v>
+        <v>0.93232782730243</v>
       </c>
       <c r="G10">
-        <v>0.0007759177289413412</v>
+        <v>0.0007741951350906243</v>
       </c>
       <c r="H10">
-        <v>0.02725836382229918</v>
+        <v>0.02843873462482227</v>
       </c>
       <c r="I10">
-        <v>0.0143664161419883</v>
+        <v>0.01710822360147279</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -893,10 +893,10 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.696941688860889</v>
       </c>
       <c r="Q10">
-        <v>1.775547518866148</v>
+        <v>2.671041276445521</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -904,28 +904,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.612142301903873</v>
+        <v>4.026737869601959</v>
       </c>
       <c r="C11">
-        <v>1.610434802784823</v>
+        <v>1.062850731216088</v>
       </c>
       <c r="D11">
-        <v>0.08861588644301577</v>
+        <v>0.05755877076850879</v>
       </c>
       <c r="E11">
-        <v>1.267337406619561</v>
+        <v>1.273281716279527</v>
       </c>
       <c r="F11">
-        <v>0.5871507068896307</v>
+        <v>0.8817242950077855</v>
       </c>
       <c r="G11">
-        <v>0.0007746196692268896</v>
+        <v>0.0007731507858902821</v>
       </c>
       <c r="H11">
-        <v>0.04270868006982909</v>
+        <v>0.04364912973931112</v>
       </c>
       <c r="I11">
-        <v>0.01643561128637661</v>
+        <v>0.01881957031504289</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.7518756670614692</v>
       </c>
       <c r="Q11">
-        <v>1.474547141099578</v>
+        <v>2.455349917182559</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -957,28 +957,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.74725555498668</v>
+        <v>3.998808706553689</v>
       </c>
       <c r="C12">
-        <v>1.642389293035194</v>
+        <v>1.04164719867569</v>
       </c>
       <c r="D12">
-        <v>0.1037805964393641</v>
+        <v>0.06634448787927028</v>
       </c>
       <c r="E12">
-        <v>0.7713189373199754</v>
+        <v>0.7757246460136571</v>
       </c>
       <c r="F12">
-        <v>0.5121260620343264</v>
+        <v>0.8193973257164942</v>
       </c>
       <c r="G12">
-        <v>0.0007745905169331831</v>
+        <v>0.0007732720225684575</v>
       </c>
       <c r="H12">
-        <v>0.07854308646568597</v>
+        <v>0.07933126607416341</v>
       </c>
       <c r="I12">
-        <v>0.01664005842228544</v>
+        <v>0.01876606120865443</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.8018015336147926</v>
       </c>
       <c r="Q12">
-        <v>1.224683832186997</v>
+        <v>2.230018738977265</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1010,28 +1010,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.71206086016997</v>
+        <v>3.856906087453297</v>
       </c>
       <c r="C13">
-        <v>1.628934670659646</v>
+        <v>0.9941221507705222</v>
       </c>
       <c r="D13">
-        <v>0.1168170525753141</v>
+        <v>0.07374033173330474</v>
       </c>
       <c r="E13">
-        <v>0.3948377359290731</v>
+        <v>0.3981850151505242</v>
       </c>
       <c r="F13">
-        <v>0.4334589186537912</v>
+        <v>0.7415224755416716</v>
       </c>
       <c r="G13">
-        <v>0.0007755528712741501</v>
+        <v>0.0007743164300377484</v>
       </c>
       <c r="H13">
-        <v>0.1314041879758321</v>
+        <v>0.1320877733521399</v>
       </c>
       <c r="I13">
-        <v>0.01567717074598907</v>
+        <v>0.01762405812788259</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1052,10 +1052,10 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.8516298066913066</v>
       </c>
       <c r="Q13">
-        <v>0.9858811040282944</v>
+        <v>1.974162583525896</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1063,28 +1063,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.610402796626545</v>
+        <v>3.705445098923747</v>
       </c>
       <c r="C14">
-        <v>1.600782500645209</v>
+        <v>0.9502030679651909</v>
       </c>
       <c r="D14">
-        <v>0.1251548963565625</v>
+        <v>0.07837039433519521</v>
       </c>
       <c r="E14">
-        <v>0.2040035724406977</v>
+        <v>0.2067866589870491</v>
       </c>
       <c r="F14">
-        <v>0.3772055239524477</v>
+        <v>0.6801878403898911</v>
       </c>
       <c r="G14">
-        <v>0.0007766576504858142</v>
+        <v>0.0007754502749329242</v>
       </c>
       <c r="H14">
-        <v>0.1788295655706946</v>
+        <v>0.1794594729324785</v>
       </c>
       <c r="I14">
-        <v>0.01459786682350295</v>
+        <v>0.01645342251417592</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.8871022934417567</v>
       </c>
       <c r="Q14">
-        <v>0.8260307867355579</v>
+        <v>1.782298678331358</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1116,28 +1116,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.549222564864976</v>
+        <v>3.642840219142954</v>
       </c>
       <c r="C15">
-        <v>1.586479300100507</v>
+        <v>0.9350401674155364</v>
       </c>
       <c r="D15">
-        <v>0.1266680095887693</v>
+        <v>0.07915881600541752</v>
       </c>
       <c r="E15">
-        <v>0.1664673984577796</v>
+        <v>0.1691515420980636</v>
       </c>
       <c r="F15">
-        <v>0.361549071281118</v>
+        <v>0.6612674466339854</v>
       </c>
       <c r="G15">
-        <v>0.0007771664842525621</v>
+        <v>0.0007759511119717162</v>
       </c>
       <c r="H15">
-        <v>0.1906857109769646</v>
+        <v>0.1913068405711869</v>
       </c>
       <c r="I15">
-        <v>0.01418120435697556</v>
+        <v>0.01602642478418481</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1158,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.8957326648395139</v>
       </c>
       <c r="Q15">
-        <v>0.7848470606577962</v>
+        <v>1.726423683432074</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1169,28 +1169,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.202401853822494</v>
+        <v>3.415509897697746</v>
       </c>
       <c r="C16">
-        <v>1.495615476278033</v>
+        <v>0.8831420113135096</v>
       </c>
       <c r="D16">
-        <v>0.1191748546277722</v>
+        <v>0.0746227652443352</v>
       </c>
       <c r="E16">
-        <v>0.1619581450697751</v>
+        <v>0.1649757372158618</v>
       </c>
       <c r="F16">
-        <v>0.3473887037929586</v>
+        <v>0.6290727610731253</v>
       </c>
       <c r="G16">
-        <v>0.0007795445118418047</v>
+        <v>0.000778154564283884</v>
       </c>
       <c r="H16">
-        <v>0.175491235802042</v>
+        <v>0.1761469891596477</v>
       </c>
       <c r="I16">
-        <v>0.01192358401845794</v>
+        <v>0.01389576357840028</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1211,10 +1211,10 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.8846610237793584</v>
       </c>
       <c r="Q16">
-        <v>0.7706965671103063</v>
+        <v>1.655776269964292</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1222,28 +1222,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.991035451832488</v>
+        <v>3.321024665012828</v>
       </c>
       <c r="C17">
-        <v>1.441267988981963</v>
+        <v>0.8665758524583111</v>
       </c>
       <c r="D17">
-        <v>0.1089952125854552</v>
+        <v>0.068686150943293</v>
       </c>
       <c r="E17">
-        <v>0.2459753982704243</v>
+        <v>0.2495924249046269</v>
       </c>
       <c r="F17">
-        <v>0.365796307107324</v>
+        <v>0.6365869619460085</v>
       </c>
       <c r="G17">
-        <v>0.000780802229109395</v>
+        <v>0.0007792633737742622</v>
       </c>
       <c r="H17">
-        <v>0.1367689001963726</v>
+        <v>0.1374730480102357</v>
       </c>
       <c r="I17">
-        <v>0.01081278822335374</v>
+        <v>0.01290158642736738</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1264,10 +1264,10 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.8577170160333907</v>
       </c>
       <c r="Q17">
-        <v>0.8422055574621652</v>
+        <v>1.70188707370113</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1275,28 +1275,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.871728470037112</v>
+        <v>3.333655881952268</v>
       </c>
       <c r="C18">
-        <v>1.407347280808153</v>
+        <v>0.8764144046545539</v>
       </c>
       <c r="D18">
-        <v>0.09563455489917061</v>
+        <v>0.06103533650605186</v>
       </c>
       <c r="E18">
-        <v>0.4790218023010837</v>
+        <v>0.4836990774361354</v>
       </c>
       <c r="F18">
-        <v>0.4181691898324047</v>
+        <v>0.6812400819957105</v>
       </c>
       <c r="G18">
-        <v>0.0007811315644281613</v>
+        <v>0.000779451795486122</v>
       </c>
       <c r="H18">
-        <v>0.08461431799794639</v>
+        <v>0.08540656275748404</v>
       </c>
       <c r="I18">
-        <v>0.01026415122278657</v>
+        <v>0.0125143417278295</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1317,10 +1317,10 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.8143454827812491</v>
       </c>
       <c r="Q18">
-        <v>1.011170216096644</v>
+        <v>1.86245199742703</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1328,28 +1328,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.83500880465499</v>
+        <v>3.423425903977261</v>
       </c>
       <c r="C19">
-        <v>1.40339474351282</v>
+        <v>0.9129069093284556</v>
       </c>
       <c r="D19">
-        <v>0.08223365033970964</v>
+        <v>0.05334773736532838</v>
       </c>
       <c r="E19">
-        <v>0.9131096264680565</v>
+        <v>0.9192880719533036</v>
       </c>
       <c r="F19">
-        <v>0.4940337535870114</v>
+        <v>0.7509527051255276</v>
       </c>
       <c r="G19">
-        <v>0.0007805737522911431</v>
+        <v>0.0007787894674839167</v>
       </c>
       <c r="H19">
-        <v>0.0420758044946794</v>
+        <v>0.04300193645821793</v>
       </c>
       <c r="I19">
-        <v>0.01072812603060136</v>
+        <v>0.01316157143171637</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1370,10 +1370,10 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.7672507512976097</v>
       </c>
       <c r="Q19">
-        <v>1.251779364725252</v>
+        <v>2.100504158686675</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1381,28 +1381,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.031627643970751</v>
+        <v>3.744961384763428</v>
       </c>
       <c r="C20">
-        <v>1.464437765624723</v>
+        <v>1.014395815254744</v>
       </c>
       <c r="D20">
-        <v>0.06744620694644254</v>
+        <v>0.04493882850729136</v>
       </c>
       <c r="E20">
-        <v>1.891890550245648</v>
+        <v>1.900556197826361</v>
       </c>
       <c r="F20">
-        <v>0.6409981226065185</v>
+        <v>0.8957133485068596</v>
       </c>
       <c r="G20">
-        <v>0.0007775358304290444</v>
+        <v>0.0007757310825716802</v>
       </c>
       <c r="H20">
-        <v>0.02500230937025849</v>
+        <v>0.02618642432198026</v>
       </c>
       <c r="I20">
-        <v>0.01333659226125761</v>
+        <v>0.01606431092290084</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.7024029010301973</v>
       </c>
       <c r="Q20">
-        <v>1.707873429777266</v>
+        <v>2.571054206805428</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1434,28 +1434,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.663603663768583</v>
+        <v>4.234385973037206</v>
       </c>
       <c r="C21">
-        <v>1.636139845533137</v>
+        <v>1.13884384872128</v>
       </c>
       <c r="D21">
-        <v>0.07300782904698622</v>
+        <v>0.04853039978854667</v>
       </c>
       <c r="E21">
-        <v>2.224275313971731</v>
+        <v>2.232452845818756</v>
       </c>
       <c r="F21">
-        <v>0.7181090159483858</v>
+        <v>1.002870546799215</v>
       </c>
       <c r="G21">
-        <v>0.0007726865873697398</v>
+        <v>0.0007711437311507585</v>
       </c>
       <c r="H21">
-        <v>0.03281830044685519</v>
+        <v>0.03398707486947439</v>
       </c>
       <c r="I21">
-        <v>0.01854060229383236</v>
+        <v>0.02118666147670556</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1476,10 +1476,10 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.691096490122753</v>
       </c>
       <c r="Q21">
-        <v>1.895197017569245</v>
+        <v>2.862923816794051</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1487,28 +1487,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.077296100170315</v>
+        <v>4.551661220263384</v>
       </c>
       <c r="C22">
-        <v>1.741715857843474</v>
+        <v>1.213745153735829</v>
       </c>
       <c r="D22">
-        <v>0.07705961331203781</v>
+        <v>0.05114237283794409</v>
       </c>
       <c r="E22">
-        <v>2.390794747381719</v>
+        <v>2.398415709812426</v>
       </c>
       <c r="F22">
-        <v>0.7665380570823004</v>
+        <v>1.070752524721385</v>
       </c>
       <c r="G22">
-        <v>0.000769642109448282</v>
+        <v>0.000768271936691179</v>
       </c>
       <c r="H22">
-        <v>0.03795447932891705</v>
+        <v>0.03907437156944749</v>
       </c>
       <c r="I22">
-        <v>0.02207615676014552</v>
+        <v>0.02456729336757402</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.6855652115969377</v>
       </c>
       <c r="Q22">
-        <v>2.010982655735347</v>
+        <v>3.045853247365073</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1540,28 +1540,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.856533976777541</v>
+        <v>4.388043389984887</v>
       </c>
       <c r="C23">
-        <v>1.678693843975964</v>
+        <v>1.170230267484214</v>
       </c>
       <c r="D23">
-        <v>0.0745603636229859</v>
+        <v>0.04958402825251795</v>
       </c>
       <c r="E23">
-        <v>2.301860511110718</v>
+        <v>2.309816508383619</v>
       </c>
       <c r="F23">
-        <v>0.7437029678328884</v>
+        <v>1.03681460987049</v>
       </c>
       <c r="G23">
-        <v>0.0007712498272074986</v>
+        <v>0.0007697827481974752</v>
       </c>
       <c r="H23">
-        <v>0.03518443906473134</v>
+        <v>0.03633694744138571</v>
       </c>
       <c r="I23">
-        <v>0.01990882957891671</v>
+        <v>0.02250664103468569</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1582,10 +1582,10 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.6867202211229895</v>
       </c>
       <c r="Q23">
-        <v>1.959238721746175</v>
+        <v>2.95620379021554</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1593,28 +1593,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.022345505370311</v>
+        <v>3.759689213248521</v>
       </c>
       <c r="C24">
-        <v>1.452387582760707</v>
+        <v>1.012181686639536</v>
       </c>
       <c r="D24">
-        <v>0.0656626206233426</v>
+        <v>0.04394261903344443</v>
       </c>
       <c r="E24">
-        <v>1.967538615152051</v>
+        <v>1.976461631646146</v>
       </c>
       <c r="F24">
-        <v>0.6548386594035378</v>
+        <v>0.9067763043870798</v>
       </c>
       <c r="G24">
-        <v>0.0007774558731151467</v>
+        <v>0.0007756338485891714</v>
       </c>
       <c r="H24">
-        <v>0.02548343545092102</v>
+        <v>0.02669420700939273</v>
       </c>
       <c r="I24">
-        <v>0.01297716825878936</v>
+        <v>0.01574906392351672</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.6955573263841259</v>
       </c>
       <c r="Q24">
-        <v>1.754635322995938</v>
+        <v>2.610298883614547</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1646,28 +1646,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.125615602166818</v>
+        <v>3.082796153344248</v>
       </c>
       <c r="C25">
-        <v>1.210872665251486</v>
+        <v>0.8434117984034515</v>
       </c>
       <c r="D25">
-        <v>0.05608168448596018</v>
+        <v>0.03782965901152835</v>
       </c>
       <c r="E25">
-        <v>1.611287029704712</v>
+        <v>1.620805740526038</v>
       </c>
       <c r="F25">
-        <v>0.5640920550256467</v>
+        <v>0.7709755821200588</v>
       </c>
       <c r="G25">
-        <v>0.0007843738772956623</v>
+        <v>0.000782176244044853</v>
       </c>
       <c r="H25">
-        <v>0.01649207729639268</v>
+        <v>0.01766107065060085</v>
       </c>
       <c r="I25">
-        <v>0.007186637996994705</v>
+        <v>0.009773803154761396</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1688,10 +1688,10 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.7082226143536374</v>
       </c>
       <c r="Q25">
-        <v>1.549647283128024</v>
+        <v>2.250509085723536</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_10_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_10_1/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.597803197262351</v>
+        <v>0.9278301724664004</v>
       </c>
       <c r="C2">
-        <v>0.7119485641435404</v>
+        <v>0.130694429726006</v>
       </c>
       <c r="D2">
-        <v>0.03291285572721492</v>
+        <v>0.09945212175215801</v>
       </c>
       <c r="E2">
-        <v>1.361407321067915</v>
+        <v>0.0579648990265369</v>
       </c>
       <c r="F2">
-        <v>0.6798212621317248</v>
+        <v>0.6680339971321203</v>
       </c>
       <c r="G2">
-        <v>0.0007871586232472039</v>
+        <v>0.4084274535068175</v>
       </c>
       <c r="H2">
-        <v>0.01199277220940109</v>
+        <v>0.01153844026411315</v>
       </c>
       <c r="I2">
-        <v>0.005767783202876409</v>
+        <v>0.0110461760351459</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.3944280301636027</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.4229911930613817</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.04779431852884741</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.07068042886777004</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.84001189742321</v>
       </c>
       <c r="P2">
-        <v>0.7161795053628026</v>
+        <v>0.1530874352910061</v>
       </c>
       <c r="Q2">
-        <v>2.014744168414211</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.1967143736409085</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.626434401374652</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.26066291172782</v>
+        <v>0.8121449349676197</v>
       </c>
       <c r="C3">
-        <v>0.6281112901472454</v>
+        <v>0.1220565620395178</v>
       </c>
       <c r="D3">
-        <v>0.02978638338481687</v>
+        <v>0.09018111320983024</v>
       </c>
       <c r="E3">
-        <v>1.18640414660436</v>
+        <v>0.05603314153638728</v>
       </c>
       <c r="F3">
-        <v>0.6162561042387509</v>
+        <v>0.6636410144536171</v>
       </c>
       <c r="G3">
-        <v>0.0007907025278933496</v>
+        <v>0.4108794743043447</v>
       </c>
       <c r="H3">
-        <v>0.008635475661823488</v>
+        <v>0.01381636414829721</v>
       </c>
       <c r="I3">
-        <v>0.003802278604460696</v>
+        <v>0.01304460075483904</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.3960292123637075</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.4301034868961615</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.05501896418256358</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.06952563187922767</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.7334527141525484</v>
       </c>
       <c r="P3">
-        <v>0.7252262043596858</v>
+        <v>0.1376284165153976</v>
       </c>
       <c r="Q3">
-        <v>1.84802363948063</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.1718673252246283</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.63706603433549</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.053033621404154</v>
+        <v>0.7406890414750364</v>
       </c>
       <c r="C4">
-        <v>0.5769465878343851</v>
+        <v>0.1169006614408588</v>
       </c>
       <c r="D4">
-        <v>0.02786294938359291</v>
+        <v>0.08453360985114955</v>
       </c>
       <c r="E4">
-        <v>1.079243740448391</v>
+        <v>0.05482910577910971</v>
       </c>
       <c r="F4">
-        <v>0.5777840511071304</v>
+        <v>0.6612205112822238</v>
       </c>
       <c r="G4">
-        <v>0.0007929509702298748</v>
+        <v>0.4126897462306189</v>
       </c>
       <c r="H4">
-        <v>0.006788786149038328</v>
+        <v>0.01537553347215032</v>
       </c>
       <c r="I4">
-        <v>0.002808140480463628</v>
+        <v>0.01444643079249097</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.3970691468679064</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.4346007621235941</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.06058422787189421</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.06878036730350789</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.6681130631186818</v>
       </c>
       <c r="P4">
-        <v>0.7314904468061201</v>
+        <v>0.1282602063927456</v>
       </c>
       <c r="Q4">
-        <v>1.747272484144673</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1566047782558257</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.644387390262281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.966867226263588</v>
+        <v>0.7111433827516862</v>
       </c>
       <c r="C5">
-        <v>0.5570060540242423</v>
+        <v>0.1149859609973802</v>
       </c>
       <c r="D5">
-        <v>0.02711732349066409</v>
+        <v>0.08227002612837708</v>
       </c>
       <c r="E5">
-        <v>1.03560817179681</v>
+        <v>0.05430895993297824</v>
       </c>
       <c r="F5">
-        <v>0.561636489855097</v>
+        <v>0.6598256938339233</v>
       </c>
       <c r="G5">
-        <v>0.0007938913891312019</v>
+        <v>0.4131087879134157</v>
       </c>
       <c r="H5">
-        <v>0.006084113324819063</v>
+        <v>0.01605446932788168</v>
       </c>
       <c r="I5">
-        <v>0.002507873075721534</v>
+        <v>0.01516266212766482</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.3972887167650185</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.436105178661748</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.06314947227657974</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.06843972711016644</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.6418197492197351</v>
       </c>
       <c r="P5">
-        <v>0.734578658242711</v>
+        <v>0.1246065365520366</v>
       </c>
       <c r="Q5">
-        <v>1.704511633347835</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1504028259097119</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.64628088810143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.950852273096388</v>
+        <v>0.7058404611080675</v>
       </c>
       <c r="C6">
-        <v>0.5547293813975784</v>
+        <v>0.1148567094570154</v>
       </c>
       <c r="D6">
-        <v>0.02704163866897247</v>
+        <v>0.0819277631857247</v>
       </c>
       <c r="E6">
-        <v>1.028341575679136</v>
+        <v>0.05419184933676213</v>
       </c>
       <c r="F6">
-        <v>0.5582333237960952</v>
+        <v>0.6590170515420581</v>
       </c>
       <c r="G6">
-        <v>0.0007940555458227334</v>
+        <v>0.4127039577365892</v>
       </c>
       <c r="H6">
-        <v>0.005967871774951172</v>
+        <v>0.01617489227424826</v>
       </c>
       <c r="I6">
-        <v>0.00253600607557658</v>
+        <v>0.01541782887055554</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.3970596005469176</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.4359178827081358</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.06360847028921235</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.06834890359048718</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.6378397993892264</v>
       </c>
       <c r="P6">
-        <v>0.7355487681603776</v>
+        <v>0.1241657843813684</v>
       </c>
       <c r="Q6">
-        <v>1.694901505474832</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1493971737478574</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.64504074420104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.047220876175572</v>
+        <v>0.7392947871894933</v>
       </c>
       <c r="C7">
-        <v>0.579499765070608</v>
+        <v>0.1173165654727057</v>
       </c>
       <c r="D7">
-        <v>0.02798496047145704</v>
+        <v>0.08473492688331419</v>
       </c>
       <c r="E7">
-        <v>1.078590135761104</v>
+        <v>0.05474919377246223</v>
       </c>
       <c r="F7">
-        <v>0.5755708414071776</v>
+        <v>0.6587937962969406</v>
       </c>
       <c r="G7">
-        <v>0.0007929820356354663</v>
+        <v>0.4134598213206857</v>
       </c>
       <c r="H7">
-        <v>0.006772998661915941</v>
+        <v>0.01540591436672051</v>
       </c>
       <c r="I7">
-        <v>0.002993613051261335</v>
+        <v>0.01481021499549051</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.3929799042594553</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.4329741781261198</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.06067592019907408</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.06866332687009269</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.6686785750026161</v>
       </c>
       <c r="P7">
-        <v>0.7327682632237398</v>
+        <v>0.1286705020770995</v>
       </c>
       <c r="Q7">
-        <v>1.739771223154349</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.1566054431410002</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.637780423820715</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.475449915545028</v>
+        <v>0.8868457132999481</v>
       </c>
       <c r="C8">
-        <v>0.6867448461070467</v>
+        <v>0.1281620768278486</v>
       </c>
       <c r="D8">
-        <v>0.03201250899027031</v>
+        <v>0.09684209844534308</v>
       </c>
       <c r="E8">
-        <v>1.300903148091805</v>
+        <v>0.05722926214238555</v>
       </c>
       <c r="F8">
-        <v>0.655126001160383</v>
+        <v>0.6617080693898956</v>
       </c>
       <c r="G8">
-        <v>0.0007883887738010078</v>
+        <v>0.4143607952856883</v>
       </c>
       <c r="H8">
-        <v>0.01077826887721478</v>
+        <v>0.01232554020485269</v>
       </c>
       <c r="I8">
-        <v>0.00526474178485703</v>
+        <v>0.01214039423468982</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.3832684298527269</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.4224351997320284</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.05014842091612248</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.07010910828830053</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.8042142617936747</v>
       </c>
       <c r="P8">
-        <v>0.7208571998837741</v>
+        <v>0.1483675494965908</v>
       </c>
       <c r="Q8">
-        <v>1.947695453102057</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.1882948460864</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.616720953508448</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.31937571960276</v>
+        <v>1.174558497655255</v>
       </c>
       <c r="C9">
-        <v>0.89486404983694</v>
+        <v>0.1499321002275664</v>
       </c>
       <c r="D9">
-        <v>0.03964780683899249</v>
+        <v>0.1202809280388522</v>
       </c>
       <c r="E9">
-        <v>1.74031629218878</v>
+        <v>0.06206212795169819</v>
       </c>
       <c r="F9">
-        <v>0.819821406831295</v>
+        <v>0.6755018272914484</v>
       </c>
       <c r="G9">
-        <v>0.0007799115522071909</v>
+        <v>0.4133510549548376</v>
       </c>
       <c r="H9">
-        <v>0.02055750911132859</v>
+        <v>0.007567125994073692</v>
       </c>
       <c r="I9">
-        <v>0.01132324856504763</v>
+        <v>0.007781823574396718</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.3777977988801524</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.4065434224608993</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.03833014554166464</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.07289206210239119</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.069433054793706</v>
       </c>
       <c r="P9">
-        <v>0.7010876780096567</v>
+        <v>0.1871691146991807</v>
       </c>
       <c r="Q9">
-        <v>2.382696616817753</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2502358228715629</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.598058023068461</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.917712953324951</v>
+        <v>1.383237935484914</v>
       </c>
       <c r="C10">
-        <v>1.045199349042434</v>
+        <v>0.167861335102728</v>
       </c>
       <c r="D10">
-        <v>0.04618919566138402</v>
+        <v>0.1367930175362488</v>
       </c>
       <c r="E10">
-        <v>1.963957886527425</v>
+        <v>0.0638932364685072</v>
       </c>
       <c r="F10">
-        <v>0.93232782730243</v>
+        <v>0.6742982025208448</v>
       </c>
       <c r="G10">
-        <v>0.0007741951350906243</v>
+        <v>0.4205629608706047</v>
       </c>
       <c r="H10">
-        <v>0.02843873462482227</v>
+        <v>0.005308207974719537</v>
       </c>
       <c r="I10">
-        <v>0.01710822360147279</v>
+        <v>0.005768255884270879</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.3544663154119618</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.3890819308630498</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.03528240801856519</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.07391562686175579</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.267976418444306</v>
       </c>
       <c r="P10">
-        <v>0.696941688860889</v>
+        <v>0.2099260775178067</v>
       </c>
       <c r="Q10">
-        <v>2.671041276445521</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.2925597763238557</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.557890078531756</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.026737869601959</v>
+        <v>1.470609740480143</v>
       </c>
       <c r="C11">
-        <v>1.062850731216088</v>
+        <v>0.1885716009388432</v>
       </c>
       <c r="D11">
-        <v>0.05755877076850879</v>
+        <v>0.1298158724945893</v>
       </c>
       <c r="E11">
-        <v>1.273281716279527</v>
+        <v>0.05226213201870955</v>
       </c>
       <c r="F11">
-        <v>0.8817242950077855</v>
+        <v>0.6012296677188544</v>
       </c>
       <c r="G11">
-        <v>0.0007731507858902821</v>
+        <v>0.3976073956763102</v>
       </c>
       <c r="H11">
-        <v>0.04364912973931112</v>
+        <v>0.02392842949796758</v>
       </c>
       <c r="I11">
-        <v>0.01881957031504289</v>
+        <v>0.005930083638932437</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.3032890354634716</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.347107002127899</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.03608347656310062</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.07296182108392824</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.387373414461308</v>
       </c>
       <c r="P11">
-        <v>0.7518756670614692</v>
+        <v>0.1663453841922475</v>
       </c>
       <c r="Q11">
-        <v>2.455349917182559</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.2830589106575019</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.38143316676873</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.998808706553689</v>
+        <v>1.501762787113563</v>
       </c>
       <c r="C12">
-        <v>1.04164719867569</v>
+        <v>0.2029103477836287</v>
       </c>
       <c r="D12">
-        <v>0.06634448787927028</v>
+        <v>0.1199039102164789</v>
       </c>
       <c r="E12">
-        <v>0.7757246460136571</v>
+        <v>0.04481098246318371</v>
       </c>
       <c r="F12">
-        <v>0.8193973257164942</v>
+        <v>0.5478927860931151</v>
       </c>
       <c r="G12">
-        <v>0.0007732720225684575</v>
+        <v>0.3712853966943186</v>
       </c>
       <c r="H12">
-        <v>0.07933126607416341</v>
+        <v>0.06280496873133501</v>
       </c>
       <c r="I12">
-        <v>0.01876606120865443</v>
+        <v>0.005840559866444828</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2806631372534483</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.3211832716070848</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.03684875297087764</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.07869347152600348</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.44616242611761</v>
       </c>
       <c r="P12">
-        <v>0.8018015336147926</v>
+        <v>0.1291123221593722</v>
       </c>
       <c r="Q12">
-        <v>2.230018738977265</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.2660538442622133</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1.262640518176013</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.856906087453297</v>
+        <v>1.489298484428133</v>
       </c>
       <c r="C13">
-        <v>0.9941221507705222</v>
+        <v>0.214137469485209</v>
       </c>
       <c r="D13">
-        <v>0.07374033173330474</v>
+        <v>0.107105523874587</v>
       </c>
       <c r="E13">
-        <v>0.3981850151505242</v>
+        <v>0.03999240853075481</v>
       </c>
       <c r="F13">
-        <v>0.7415224755416716</v>
+        <v>0.5047196731649208</v>
       </c>
       <c r="G13">
-        <v>0.0007743164300377484</v>
+        <v>0.3350176381179466</v>
       </c>
       <c r="H13">
-        <v>0.1320877733521399</v>
+        <v>0.1189237326571799</v>
       </c>
       <c r="I13">
-        <v>0.01762405812788259</v>
+        <v>0.006034420966035903</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2739737226007044</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.3040138821478315</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.03735760152817313</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.08930858630816729</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.463160066289873</v>
       </c>
       <c r="P13">
-        <v>0.8516298066913066</v>
+        <v>0.09562926653959636</v>
       </c>
       <c r="Q13">
-        <v>1.974162583525896</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.2424831810560057</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1.175648305332444</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.705445098923747</v>
+        <v>1.460487158979987</v>
       </c>
       <c r="C14">
-        <v>0.9502030679651909</v>
+        <v>0.2209088910928756</v>
       </c>
       <c r="D14">
-        <v>0.07837039433519521</v>
+        <v>0.09707190428702006</v>
       </c>
       <c r="E14">
-        <v>0.2067866589870491</v>
+        <v>0.03818054339910437</v>
       </c>
       <c r="F14">
-        <v>0.6801878403898911</v>
+        <v>0.4785869359079911</v>
       </c>
       <c r="G14">
-        <v>0.0007754502749329242</v>
+        <v>0.3067492494784076</v>
       </c>
       <c r="H14">
-        <v>0.1794594729324785</v>
+        <v>0.1685900485584142</v>
       </c>
       <c r="I14">
-        <v>0.01645342251417592</v>
+        <v>0.006413519427002079</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2743184060883408</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.2955556956802603</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.03762335715374387</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.09958080513434808</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.456406864463162</v>
       </c>
       <c r="P14">
-        <v>0.8871022934417567</v>
+        <v>0.07495002379927485</v>
       </c>
       <c r="Q14">
-        <v>1.782298678331358</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2232222443439618</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1.127355054314151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.642840219142954</v>
+        <v>1.44374382577405</v>
       </c>
       <c r="C15">
-        <v>0.9350401674155364</v>
+        <v>0.2220421800088701</v>
       </c>
       <c r="D15">
-        <v>0.07915881600541752</v>
+        <v>0.09409919171947934</v>
       </c>
       <c r="E15">
-        <v>0.1691515420980636</v>
+        <v>0.03795224801616875</v>
       </c>
       <c r="F15">
-        <v>0.6612674466339854</v>
+        <v>0.4733019044522244</v>
       </c>
       <c r="G15">
-        <v>0.0007759511119717162</v>
+        <v>0.2983035965183873</v>
       </c>
       <c r="H15">
-        <v>0.1913068405711869</v>
+        <v>0.1812586091744066</v>
       </c>
       <c r="I15">
-        <v>0.01602642478418481</v>
+        <v>0.006729056716389792</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.276471109004671</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.2945643050099029</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.03768768957221802</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.1022457217765194</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.446066559691872</v>
       </c>
       <c r="P15">
-        <v>0.8957326648395139</v>
+        <v>0.0702058596814048</v>
       </c>
       <c r="Q15">
-        <v>1.726423683432074</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2171888919478597</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1.119443229372564</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.415509897697746</v>
+        <v>1.355161417175651</v>
       </c>
       <c r="C16">
-        <v>0.8831420113135096</v>
+        <v>0.2123835658327948</v>
       </c>
       <c r="D16">
-        <v>0.0746227652443352</v>
+        <v>0.08890554762533043</v>
       </c>
       <c r="E16">
-        <v>0.1649757372158618</v>
+        <v>0.03810086831922604</v>
       </c>
       <c r="F16">
-        <v>0.6290727610731253</v>
+        <v>0.4856924564103089</v>
       </c>
       <c r="G16">
-        <v>0.000778154564283884</v>
+        <v>0.2880803238004503</v>
       </c>
       <c r="H16">
-        <v>0.1761469891596477</v>
+        <v>0.1694562292136368</v>
       </c>
       <c r="I16">
-        <v>0.01389576357840028</v>
+        <v>0.007683419913893985</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.298392601104581</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.3055315181591673</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.03789945317854215</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.09867369043269036</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.357815109167689</v>
       </c>
       <c r="P16">
-        <v>0.8846610237793584</v>
+        <v>0.06861834654261045</v>
       </c>
       <c r="Q16">
-        <v>1.655776269964292</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2043094375964465</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>1.161596421812533</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.321024665012828</v>
+        <v>1.302719142648471</v>
       </c>
       <c r="C17">
-        <v>0.8665758524583111</v>
+        <v>0.2012799824861133</v>
       </c>
       <c r="D17">
-        <v>0.068686150943293</v>
+        <v>0.090308421684</v>
       </c>
       <c r="E17">
-        <v>0.2495924249046269</v>
+        <v>0.0389125274305453</v>
       </c>
       <c r="F17">
-        <v>0.6365869619460085</v>
+        <v>0.5086725575307298</v>
       </c>
       <c r="G17">
-        <v>0.0007792633737742622</v>
+        <v>0.2963708210458265</v>
       </c>
       <c r="H17">
-        <v>0.1374730480102357</v>
+        <v>0.1322422466243154</v>
       </c>
       <c r="I17">
-        <v>0.01290158642736738</v>
+        <v>0.008258655963316208</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3157101816275087</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.3185412437982595</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.03814573191599235</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.09015713844482676</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.293781635175463</v>
       </c>
       <c r="P17">
-        <v>0.8577170160333907</v>
+        <v>0.07771007378980244</v>
       </c>
       <c r="Q17">
-        <v>1.70188707370113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2045647937960631</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1.218948456504933</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.333655881952268</v>
+        <v>1.276063362266484</v>
       </c>
       <c r="C18">
-        <v>0.8764144046545539</v>
+        <v>0.1877781127102338</v>
       </c>
       <c r="D18">
-        <v>0.06103533650605186</v>
+        <v>0.09734722387791805</v>
       </c>
       <c r="E18">
-        <v>0.4836990774361354</v>
+        <v>0.04175369428995879</v>
       </c>
       <c r="F18">
-        <v>0.6812400819957105</v>
+        <v>0.5470439024987428</v>
       </c>
       <c r="G18">
-        <v>0.000779451795486122</v>
+        <v>0.3189595671341436</v>
       </c>
       <c r="H18">
-        <v>0.08540656275748404</v>
+        <v>0.07955863654014195</v>
       </c>
       <c r="I18">
-        <v>0.0125143417278295</v>
+        <v>0.008138580026010978</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.3337828133174412</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.3371158771878218</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.03804768046864471</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.0794119311052377</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.242939851673839</v>
       </c>
       <c r="P18">
-        <v>0.8143454827812491</v>
+        <v>0.09945003225546856</v>
       </c>
       <c r="Q18">
-        <v>1.86245199742703</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.2162360652911275</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.305219989654489</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.423425903977261</v>
+        <v>1.269847617824638</v>
       </c>
       <c r="C19">
-        <v>0.9129069093284556</v>
+        <v>0.1759780607451518</v>
       </c>
       <c r="D19">
-        <v>0.05334773736532838</v>
+        <v>0.1087968404297186</v>
       </c>
       <c r="E19">
-        <v>0.9192880719533036</v>
+        <v>0.04795812784232645</v>
       </c>
       <c r="F19">
-        <v>0.7509527051255276</v>
+        <v>0.5953515478565521</v>
       </c>
       <c r="G19">
-        <v>0.0007787894674839167</v>
+        <v>0.3498948013333347</v>
       </c>
       <c r="H19">
-        <v>0.04300193645821793</v>
+        <v>0.03389116506435386</v>
       </c>
       <c r="I19">
-        <v>0.01316157143171637</v>
+        <v>0.008152174536201429</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.3520750461352335</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.3593059283284177</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.0375277971936383</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.07223031875922103</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.209180274315884</v>
       </c>
       <c r="P19">
-        <v>0.7672507512976097</v>
+        <v>0.1345924480974858</v>
       </c>
       <c r="Q19">
-        <v>2.100504158686675</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2367571247701505</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.408834186799368</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.744961384763428</v>
+        <v>1.324876011958935</v>
       </c>
       <c r="C20">
-        <v>1.014395815254744</v>
+        <v>0.1655545812338488</v>
       </c>
       <c r="D20">
-        <v>0.04493882850729136</v>
+        <v>0.132121727017136</v>
       </c>
       <c r="E20">
-        <v>1.900556197826361</v>
+        <v>0.06306394514012936</v>
       </c>
       <c r="F20">
-        <v>0.8957133485068596</v>
+        <v>0.6724009513933638</v>
       </c>
       <c r="G20">
-        <v>0.0007757310825716802</v>
+        <v>0.4071083286780421</v>
       </c>
       <c r="H20">
-        <v>0.02618642432198026</v>
+        <v>0.005840947408510822</v>
       </c>
       <c r="I20">
-        <v>0.01606431092290084</v>
+        <v>0.007274720290928904</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.3688076317548621</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.3916688791346772</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.03577267301177844</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.0734614789761685</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.21985840679335</v>
       </c>
       <c r="P20">
-        <v>0.7024029010301973</v>
+        <v>0.2050469723678745</v>
       </c>
       <c r="Q20">
-        <v>2.571054206805428</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.2814516410352326</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.563253767955331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.234385973037206</v>
+        <v>1.487627756540576</v>
       </c>
       <c r="C21">
-        <v>1.13884384872128</v>
+        <v>0.1756789913173691</v>
       </c>
       <c r="D21">
-        <v>0.04853039978854667</v>
+        <v>0.1505884364511587</v>
       </c>
       <c r="E21">
-        <v>2.232452845818756</v>
+        <v>0.0673110718827008</v>
       </c>
       <c r="F21">
-        <v>1.002870546799215</v>
+        <v>0.6702003554600111</v>
       </c>
       <c r="G21">
-        <v>0.0007711437311507585</v>
+        <v>0.4636720458174892</v>
       </c>
       <c r="H21">
-        <v>0.03398707486947439</v>
+        <v>0.00396440296089845</v>
       </c>
       <c r="I21">
-        <v>0.02118666147670556</v>
+        <v>0.005811247273679321</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.3094875933141168</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.3775972395883649</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.03511444198168157</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.07506958972886846</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.364278594949724</v>
       </c>
       <c r="P21">
-        <v>0.691096490122753</v>
+        <v>0.2330867932447518</v>
       </c>
       <c r="Q21">
-        <v>2.862923816794051</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3194331111676831</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.520915768841789</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.551661220263384</v>
+        <v>1.594911383646746</v>
       </c>
       <c r="C22">
-        <v>1.213745153735829</v>
+        <v>0.1820975096009221</v>
       </c>
       <c r="D22">
-        <v>0.05114237283794409</v>
+        <v>0.1619788208794688</v>
       </c>
       <c r="E22">
-        <v>2.398415709812426</v>
+        <v>0.06936754837186498</v>
       </c>
       <c r="F22">
-        <v>1.070752524721385</v>
+        <v>0.665862209882647</v>
       </c>
       <c r="G22">
-        <v>0.000768271936691179</v>
+        <v>0.5070534883174673</v>
       </c>
       <c r="H22">
-        <v>0.03907437156944749</v>
+        <v>0.003058061696752601</v>
       </c>
       <c r="I22">
-        <v>0.02456729336757402</v>
+        <v>0.004638814938855873</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2778209424032845</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.367491538485698</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.03568802981777264</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.07580663418650513</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.458834393573341</v>
       </c>
       <c r="P22">
-        <v>0.6855652115969377</v>
+        <v>0.2475317151792211</v>
       </c>
       <c r="Q22">
-        <v>3.045853247365073</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3425213463313312</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.487741924518218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.388043389984887</v>
+        <v>1.538767135246076</v>
       </c>
       <c r="C23">
-        <v>1.170230267484214</v>
+        <v>0.1780661589258727</v>
       </c>
       <c r="D23">
-        <v>0.04958402825251795</v>
+        <v>0.1553634187706052</v>
       </c>
       <c r="E23">
-        <v>2.309816508383619</v>
+        <v>0.06832628369262927</v>
       </c>
       <c r="F23">
-        <v>1.03681460987049</v>
+        <v>0.6718586486859053</v>
       </c>
       <c r="G23">
-        <v>0.0007697827481974752</v>
+        <v>0.4788179839713251</v>
       </c>
       <c r="H23">
-        <v>0.03633694744138571</v>
+        <v>0.003514090246284574</v>
       </c>
       <c r="I23">
-        <v>0.02250664103468569</v>
+        <v>0.004840671366825866</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2988857717256508</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.3750186330754985</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.03524433796381121</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.07553418069796702</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.407402545263238</v>
       </c>
       <c r="P23">
-        <v>0.6867202211229895</v>
+        <v>0.2392168026589587</v>
       </c>
       <c r="Q23">
-        <v>2.95620379021554</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.330070065261836</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.515324801887061</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.759689213248521</v>
+        <v>1.324760681222159</v>
       </c>
       <c r="C24">
-        <v>1.012181686639536</v>
+        <v>0.1631677105423037</v>
       </c>
       <c r="D24">
-        <v>0.04394261903344443</v>
+        <v>0.1331625664477514</v>
       </c>
       <c r="E24">
-        <v>1.976461631646146</v>
+        <v>0.0644576315444656</v>
       </c>
       <c r="F24">
-        <v>0.9067763043870798</v>
+        <v>0.6810178852855842</v>
       </c>
       <c r="G24">
-        <v>0.0007756338485891714</v>
+        <v>0.4129482035350307</v>
       </c>
       <c r="H24">
-        <v>0.02669420700939273</v>
+        <v>0.005623826232060591</v>
       </c>
       <c r="I24">
-        <v>0.01574906392351672</v>
+        <v>0.006614020942656396</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.3725378757763593</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.3966164631594751</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.03565965979079833</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.07413803520935947</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.212972828433408</v>
       </c>
       <c r="P24">
-        <v>0.6955573263841259</v>
+        <v>0.2090864716073924</v>
       </c>
       <c r="Q24">
-        <v>2.610298883614547</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.2833698107932818</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.583462077808534</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.082796153344248</v>
+        <v>1.095001211999886</v>
       </c>
       <c r="C25">
-        <v>0.8434117984034515</v>
+        <v>0.145152222247809</v>
       </c>
       <c r="D25">
-        <v>0.03782965901152835</v>
+        <v>0.1138554731966366</v>
       </c>
       <c r="E25">
-        <v>1.620805740526038</v>
+        <v>0.0606095685714898</v>
       </c>
       <c r="F25">
-        <v>0.7709755821200588</v>
+        <v>0.6699308045901518</v>
       </c>
       <c r="G25">
-        <v>0.000782176244044853</v>
+        <v>0.4081550785816361</v>
       </c>
       <c r="H25">
-        <v>0.01766107065060085</v>
+        <v>0.008713173491845402</v>
       </c>
       <c r="I25">
-        <v>0.009773803154761396</v>
+        <v>0.009379000572059759</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.3824998695885711</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.4093706540020747</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.0406093736815889</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.07205583933276127</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.9997331131849876</v>
       </c>
       <c r="P25">
-        <v>0.7082226143536374</v>
+        <v>0.1773815970055992</v>
       </c>
       <c r="Q25">
-        <v>2.250509085723536</v>
+        <v>0.2335707197784025</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.598392194611364</v>
       </c>
     </row>
   </sheetData>
